--- a/biology/Botanique/Moringa_drouhardii/Moringa_drouhardii.xlsx
+++ b/biology/Botanique/Moringa_drouhardii/Moringa_drouhardii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Moringa drouhardii est une espèce d'arbre de la famille des Moringaceae.
 C'est un arbre au large tronc blanc endémique des forêts sèches du sud de Madagascar où il est appelé localement ananambo. Il pousse extrêmement rapidement, jusqu'à 3 m par an.
